--- a/lesson 2.xlsx
+++ b/lesson 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D74F17-8865-4F4C-94F3-6687B86232C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>פלט</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="תרשים זרימה: מסיים 9"/>
+        <xdr:cNvPr id="10" name="תרשים זרימה: מסיים 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -153,7 +177,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="תרשים זרימה: כרטיס 10"/>
+        <xdr:cNvPr id="11" name="תרשים זרימה: כרטיס 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -199,25 +229,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="יהלום 11"/>
+        <xdr:cNvPr id="12" name="יהלום 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11233280176" y="2305050"/>
-          <a:ext cx="1600200" cy="1000125"/>
+          <a:off x="10983687076" y="2305050"/>
+          <a:ext cx="1554480" cy="965835"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -265,17 +301,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="תרשים זרימה: מסמך 12"/>
+        <xdr:cNvPr id="13" name="תרשים זרימה: מסמך 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11232089550" y="3257550"/>
-          <a:ext cx="1362075" cy="542925"/>
+          <a:off x="10982473590" y="3154680"/>
+          <a:ext cx="1331595" cy="624840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -325,19 +367,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="תרשים זרימה: מסמך 13"/>
+        <xdr:cNvPr id="14" name="תרשים זרימה: מסמך 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11234785125" y="3248025"/>
-          <a:ext cx="1362075" cy="542925"/>
+          <a:off x="10985115825" y="3150870"/>
+          <a:ext cx="1339215" cy="613410"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -393,7 +441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="תרשים זרימה: מסיים 14"/>
+        <xdr:cNvPr id="15" name="תרשים זרימה: מסיים 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -451,7 +505,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="מחבר חץ ישר 16"/>
+        <xdr:cNvPr id="17" name="מחבר חץ ישר 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -498,7 +558,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="מחבר חץ ישר 17"/>
+        <xdr:cNvPr id="18" name="מחבר חץ ישר 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -545,7 +611,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="מחבר מרפקי 19"/>
+        <xdr:cNvPr id="20" name="מחבר מרפקי 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -582,29 +654,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>474345</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="מחבר מרפקי 21"/>
+        <xdr:cNvPr id="22" name="מחבר מרפקי 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11235004200" y="2771775"/>
-          <a:ext cx="638175" cy="400050"/>
+          <a:off x="10985357760" y="2678430"/>
+          <a:ext cx="622935" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 96269"/>
+            <a:gd name="adj1" fmla="val 99939"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -630,26 +708,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>541018</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76197</xdr:colOff>
+      <xdr:colOff>182877</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="סוגר מסולסל שמאלי 34"/>
+        <xdr:cNvPr id="35" name="סוגר מסולסל שמאלי 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="11233832627" y="2667000"/>
-          <a:ext cx="400050" cy="2781297"/>
+          <a:off x="10984224287" y="2432685"/>
+          <a:ext cx="384811" cy="2994659"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -703,7 +787,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="תרשים זרימה: מסיים 1"/>
+        <xdr:cNvPr id="2" name="תרשים זרימה: מסיים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -761,7 +851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="תרשים זרימה: כרטיס 2"/>
+        <xdr:cNvPr id="3" name="תרשים זרימה: כרטיס 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -819,7 +915,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="תרשים זרימה: תהליך 8"/>
+        <xdr:cNvPr id="9" name="תרשים זרימה: תהליך 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -877,7 +979,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="תרשים זרימה: תהליך 9"/>
+        <xdr:cNvPr id="10" name="תרשים זרימה: תהליך 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -935,7 +1043,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="תרשים זרימה: מסיים 10"/>
+        <xdr:cNvPr id="11" name="תרשים זרימה: מסיים 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -993,7 +1107,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="מחבר ישר 12"/>
+        <xdr:cNvPr id="13" name="מחבר ישר 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1037,7 +1157,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="מחבר ישר 14"/>
+        <xdr:cNvPr id="15" name="מחבר ישר 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1081,7 +1207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="תרשים זרימה: מחבר 16"/>
+        <xdr:cNvPr id="17" name="תרשים זרימה: מחבר 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1139,7 +1271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="תרשים זרימה: תהליך 17"/>
+        <xdr:cNvPr id="18" name="תרשים זרימה: תהליך 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1197,7 +1335,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="מחבר חץ ישר 26"/>
+        <xdr:cNvPr id="27" name="מחבר חץ ישר 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -1248,7 +1392,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="מחבר מרפקי 29"/>
+        <xdr:cNvPr id="30" name="מחבר מרפקי 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1297,7 +1447,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="מחבר חץ ישר 37"/>
+        <xdr:cNvPr id="38" name="מחבר חץ ישר 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1344,7 +1500,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="מחבר חץ ישר 38"/>
+        <xdr:cNvPr id="39" name="מחבר חץ ישר 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1391,7 +1553,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="מחבר חץ ישר 39"/>
+        <xdr:cNvPr id="40" name="מחבר חץ ישר 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1438,7 +1606,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="מחבר חץ ישר 40"/>
+        <xdr:cNvPr id="41" name="מחבר חץ ישר 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1485,7 +1659,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="מחבר חץ ישר 41"/>
+        <xdr:cNvPr id="42" name="מחבר חץ ישר 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1537,7 +1717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="תרשים זרימה: מסיים 1"/>
+        <xdr:cNvPr id="2" name="תרשים זרימה: מסיים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1595,7 +1781,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="תרשים זרימה: כרטיס 2"/>
+        <xdr:cNvPr id="3" name="תרשים זרימה: כרטיס 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1653,7 +1845,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="תרשים זרימה: תהליך 3"/>
+        <xdr:cNvPr id="4" name="תרשים זרימה: תהליך 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1686,9 +1884,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>sum+=a</a:t>
+            <a:t>mult+=a</a:t>
           </a:r>
           <a:endParaRPr lang="he-IL" sz="1100"/>
         </a:p>
@@ -1711,7 +1913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="תרשים זרימה: מסיים 5"/>
+        <xdr:cNvPr id="6" name="תרשים זרימה: מסיים 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1758,24 +1966,30 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="מחבר ישר 6"/>
+        <xdr:cNvPr id="7" name="מחבר ישר 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11233785000" y="5734050"/>
-          <a:ext cx="676275" cy="0"/>
+          <a:off x="10983468000" y="4962525"/>
+          <a:ext cx="661035" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1801,25 +2015,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>521969</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="מחבר ישר 7"/>
+        <xdr:cNvPr id="8" name="מחבר ישר 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11233327800" y="5924550"/>
-          <a:ext cx="1619251" cy="9525"/>
+          <a:off x="10983018420" y="5109210"/>
+          <a:ext cx="1573531" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1857,7 +2077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="תרשים זרימה: צומת מסכם 8"/>
+        <xdr:cNvPr id="9" name="תרשים זרימה: צומת מסכם 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1915,7 +2141,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="תרשים זרימה: תהליך 9"/>
+        <xdr:cNvPr id="10" name="תרשים זרימה: תהליך 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1950,7 +2182,7 @@
           <a:pPr algn="r" rtl="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>sum = 0</a:t>
+            <a:t>mult = 0</a:t>
           </a:r>
           <a:endParaRPr lang="he-IL" sz="1100"/>
         </a:p>
@@ -1961,25 +2193,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>660083</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="מחבר חץ ישר 10"/>
+        <xdr:cNvPr id="11" name="מחבר חץ ישר 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11234123137" y="4914900"/>
-          <a:ext cx="4763" cy="762000"/>
+          <a:off x="10983783277" y="4105275"/>
+          <a:ext cx="4763" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2022,7 +2260,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="מחבר מרפקי 11"/>
+        <xdr:cNvPr id="12" name="מחבר מרפקי 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2071,7 +2315,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="מחבר חץ ישר 12"/>
+        <xdr:cNvPr id="13" name="מחבר חץ ישר 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2118,7 +2368,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="מחבר חץ ישר 13"/>
+        <xdr:cNvPr id="14" name="מחבר חץ ישר 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2165,7 +2421,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="מחבר חץ ישר 14"/>
+        <xdr:cNvPr id="15" name="מחבר חץ ישר 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2212,7 +2474,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="מחבר חץ ישר 15"/>
+        <xdr:cNvPr id="16" name="מחבר חץ ישר 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2259,7 +2527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2325,7 +2599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2378,26 +2658,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11233708800" y="2790826"/>
-          <a:ext cx="409575" cy="247650"/>
+          <a:off x="10984009020" y="2689861"/>
+          <a:ext cx="426720" cy="220979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2457,7 +2743,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="תרשים זרימה: מסיים 20"/>
+        <xdr:cNvPr id="21" name="תרשים זרימה: מסיים 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2515,7 +2807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="תרשים זרימה: כרטיס 21"/>
+        <xdr:cNvPr id="22" name="תרשים זרימה: כרטיס 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2573,7 +2871,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="תרשים זרימה: תהליך 22"/>
+        <xdr:cNvPr id="23" name="תרשים זרימה: תהליך 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2608,7 +2912,7 @@
           <a:pPr algn="r" rtl="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>sum+=a</a:t>
+            <a:t>mult+=a</a:t>
           </a:r>
           <a:endParaRPr lang="he-IL" sz="1100"/>
         </a:p>
@@ -2631,7 +2935,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="תרשים זרימה: מסיים 23"/>
+        <xdr:cNvPr id="24" name="תרשים זרימה: מסיים 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2689,7 +2999,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="מחבר ישר 24"/>
+        <xdr:cNvPr id="25" name="מחבר ישר 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2733,7 +3049,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="מחבר ישר 25"/>
+        <xdr:cNvPr id="26" name="מחבר ישר 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2777,7 +3099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="תרשים זרימה: תהליך 27"/>
+        <xdr:cNvPr id="28" name="תרשים זרימה: תהליך 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2812,7 +3140,7 @@
           <a:pPr algn="r" rtl="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>sum = 0</a:t>
+            <a:t>mult = 0</a:t>
           </a:r>
           <a:endParaRPr lang="he-IL" sz="1100"/>
         </a:p>
@@ -2835,7 +3163,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="מחבר חץ ישר 28"/>
+        <xdr:cNvPr id="29" name="מחבר חץ ישר 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2884,7 +3218,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="מחבר מרפקי 29"/>
+        <xdr:cNvPr id="30" name="מחבר מרפקי 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2933,7 +3273,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="מחבר חץ ישר 30"/>
+        <xdr:cNvPr id="31" name="מחבר חץ ישר 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2980,7 +3326,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="מחבר חץ ישר 31"/>
+        <xdr:cNvPr id="32" name="מחבר חץ ישר 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3027,7 +3379,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="מחבר חץ ישר 32"/>
+        <xdr:cNvPr id="33" name="מחבר חץ ישר 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3074,7 +3432,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="מחבר חץ ישר 33"/>
+        <xdr:cNvPr id="34" name="מחבר חץ ישר 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3121,7 +3485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="תרשים זרימה: מחבר 37"/>
+        <xdr:cNvPr id="38" name="תרשים זרימה: מחבר 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3179,7 +3549,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="תרשים זרימה: תהליך 38"/>
+        <xdr:cNvPr id="39" name="תרשים זרימה: תהליך 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3237,7 +3613,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="מחבר חץ ישר 39"/>
+        <xdr:cNvPr id="40" name="מחבר חץ ישר 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3284,7 +3666,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="מחבר חץ ישר 40"/>
+        <xdr:cNvPr id="41" name="מחבר חץ ישר 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3336,7 +3724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="תרשים זרימה: מסיים 1"/>
+        <xdr:cNvPr id="2" name="תרשים זרימה: מסיים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3394,7 +3788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="תרשים זרימה: כרטיס 2"/>
+        <xdr:cNvPr id="3" name="תרשים זרימה: כרטיס 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3439,84 +3839,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>451485</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="תרשים זרימה: החלטה 3"/>
+        <xdr:cNvPr id="5" name="תרשים זרימה: מסיים 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11233061100" y="3457576"/>
-          <a:ext cx="2038350" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r" rtl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>x%i != 0</a:t>
-          </a:r>
-          <a:endParaRPr lang="he-IL" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="תרשים זרימה: מסיים 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11234708925" y="6010275"/>
-          <a:ext cx="1152525" cy="304800"/>
+          <a:off x="10985332995" y="5768340"/>
+          <a:ext cx="1122045" cy="299085"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -3555,26 +3903,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="מחבר ישר 5"/>
+        <xdr:cNvPr id="6" name="מחבר ישר 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11231956200" y="4819650"/>
-          <a:ext cx="676275" cy="0"/>
+          <a:off x="10985350140" y="4640580"/>
+          <a:ext cx="661035" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3599,26 +3953,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>451483</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="מחבר ישר 6"/>
+        <xdr:cNvPr id="7" name="מחבר ישר 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11231584725" y="4933950"/>
-          <a:ext cx="1619251" cy="9525"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10984992000" y="4754880"/>
+          <a:ext cx="1011557" cy="17145"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3643,26 +4003,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10478</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="מחבר חץ ישר 8"/>
+        <xdr:cNvPr id="9" name="מחבר חץ ישר 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11232303862" y="3962400"/>
-          <a:ext cx="4763" cy="762000"/>
+          <a:off x="10985774002" y="3842385"/>
+          <a:ext cx="4763" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3705,7 +4071,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="מחבר מרפקי 9"/>
+        <xdr:cNvPr id="10" name="מחבר מרפקי 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3754,7 +4126,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="מחבר חץ ישר 10"/>
+        <xdr:cNvPr id="11" name="מחבר חץ ישר 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3801,7 +4179,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="מחבר חץ ישר 11"/>
+        <xdr:cNvPr id="12" name="מחבר חץ ישר 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3848,7 +4232,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="מחבר חץ ישר 16"/>
+        <xdr:cNvPr id="17" name="מחבר חץ ישר 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3885,23 +4275,29 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="תרשים זרימה: צומת מסכם 19"/>
+        <xdr:cNvPr id="20" name="תרשים זרימה: צומת מסכם 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11233337325" y="2076450"/>
-          <a:ext cx="1533525" cy="1133475"/>
+          <a:off x="10983706125" y="2005965"/>
+          <a:ext cx="1487805" cy="1099185"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartSummingJunction">
           <a:avLst/>
@@ -3953,7 +4349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="תרשים זרימה: תהליך 20"/>
+        <xdr:cNvPr id="21" name="תרשים זרימה: תהליך 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4011,7 +4413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4077,7 +4485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4143,7 +4557,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4197,25 +4617,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238123</xdr:colOff>
+      <xdr:colOff>62863</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>125729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>234315</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>106679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="מחבר מרפקי 26"/>
+        <xdr:cNvPr id="27" name="מחבר מרפקי 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11232308625" y="3714749"/>
-          <a:ext cx="857252" cy="161925"/>
+          <a:off x="10982867925" y="3630929"/>
+          <a:ext cx="842012" cy="156210"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4246,30 +4672,1323 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266703</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655323</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76204</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="מחבר מרפקי 32"/>
+        <xdr:cNvPr id="33" name="מחבר מרפקי 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11234508897" y="3705225"/>
-          <a:ext cx="752478" cy="352429"/>
+          <a:off x="10985129157" y="3705225"/>
+          <a:ext cx="655323" cy="249555"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 100633"/>
+            <a:gd name="adj1" fmla="val 98837"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="תרשים זרימה: מסמך 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D9B8BE-6251-4187-A06F-2060BB276371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982073540" y="3726180"/>
+          <a:ext cx="1066800" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>לא</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0"/>
+            <a:t> ראשוני"</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="מחבר חץ ישר 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01694E77-8CE1-49CD-A634-5A53A02477A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10986074040" y="2910840"/>
+          <a:ext cx="7620" cy="2804160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="מחבר: מרפקי 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A808384-3134-4FA4-B187-76DBE25348A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982515500" y="4259580"/>
+          <a:ext cx="3573780" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="תרשים זרימה: החלטה 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F15A1BE-C70B-44B1-BCE5-F3AE1268B026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10983643260" y="3314700"/>
+          <a:ext cx="1638300" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x%i==0</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="תרשים זרימה: מסיים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553E04AF-CF9C-4316-8AFF-DF2482164981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977057675" y="474345"/>
+          <a:ext cx="1331595" cy="264795"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>start</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="תרשים זרימה: כרטיס 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59F5D4C-F0C8-4ECD-A39B-FEADC13200C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977090060" y="1061085"/>
+          <a:ext cx="1242060" cy="436245"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedCard">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="תרשים זרימה: מסיים 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB3B07A-8742-4F34-B1A1-401F8E666D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10984075695" y="6376035"/>
+          <a:ext cx="1137285" cy="293370"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>end</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="מחבר ישר 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337FB89E-0F40-44FE-97CD-87C66581F82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10977432960" y="5732145"/>
+          <a:ext cx="661035" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="מחבר ישר 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42896FC1-6A8D-4EA6-A043-771CCC006B9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10976991000" y="5916930"/>
+          <a:ext cx="1573531" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="תרשים זרימה: תהליך 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144A1E18-9E29-41B5-9622-EE5C84E28B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977118635" y="1729740"/>
+          <a:ext cx="1184910" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a=a*11</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="מחבר חץ ישר 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41792E8A-139F-457F-AA24-31E1802611A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977755857" y="4935855"/>
+          <a:ext cx="4763" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDot"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="מחבר מרפקי 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748ABD27-73F0-4AE8-AF9B-105FE1782DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10978378792" y="2881312"/>
+          <a:ext cx="937264" cy="737237"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2941"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="מחבר חץ ישר 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211637A6-A213-4CD1-9B56-27C9F7ED4D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977739665" y="701040"/>
+          <a:ext cx="0" cy="337185"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="מחבר חץ ישר 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D535FD32-AF5B-487E-898D-FC7119715A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977737760" y="1402080"/>
+          <a:ext cx="0" cy="337185"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="מחבר חץ ישר 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE816B07-AA12-41CB-B065-0DDA944AF036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977737760" y="1956435"/>
+          <a:ext cx="0" cy="331470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="מחבר חץ ישר 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE200A5-27D5-43EA-A107-5240A6079EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10984445265" y="3789045"/>
+          <a:ext cx="0" cy="331470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="תרשים זרימה: מחבר 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC87DC1C-8A88-49DD-A02A-871040DAA098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977128160" y="2306955"/>
+          <a:ext cx="1242060" cy="824865"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a&gt;9</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="תרשים זרימה: תהליך 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8500DD4B-6C88-4376-837C-1682C47D772E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977038625" y="4486276"/>
+          <a:ext cx="1322070" cy="497205"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a=a-10</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="מחבר חץ ישר 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2300F5-7009-418E-9298-13DC328D1B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977741570" y="3154680"/>
+          <a:ext cx="0" cy="337185"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="תרשים זרימה: מסמך 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6B7395-7992-4310-89D8-C2140FA18712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982401200" y="4732020"/>
+          <a:ext cx="1287780" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a/10</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="תרשים זרימה: מסמך 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47481995-912F-463F-BAA6-91488944B74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10984108080" y="4998720"/>
+          <a:ext cx="1074420" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="מחבר חץ ישר 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DDF34B-972C-4435-8644-41227BB92E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10984557660" y="5669280"/>
+          <a:ext cx="7620" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4557,14 +6276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4572,14 +6291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F35"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4587,14 +6306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4603,30 +6322,125 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="H3:I11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F35:F36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="H4:J18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>